--- a/Banco Central/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>Serie</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5909,10 +5912,21 @@
         <v>369</v>
       </c>
       <c r="B366">
-        <v>136.11</v>
+        <v>136.25</v>
       </c>
       <c r="C366">
-        <v>169.95</v>
+        <v>170.13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>370</v>
+      </c>
+      <c r="B367">
+        <v>129.45</v>
+      </c>
+      <c r="C367">
+        <v>162.55</v>
       </c>
     </row>
   </sheetData>
